--- a/Sarif-Backlog.xlsx
+++ b/Sarif-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFDFD11-886C-A640-9172-5862A012AC20}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4633CC7B-97A3-774F-9B1A-C56A360BDFC6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{1BCA2EC9-8CB1-456B-9089-9653A9A9AC9B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{1BCA2EC9-8CB1-456B-9089-9653A9A9AC9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Task Id</t>
   </si>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Create Chart of Accounts</t>
+  </si>
+  <si>
+    <t>Display Chart of Accounts</t>
+  </si>
+  <si>
+    <t>to create chart of accounts</t>
+  </si>
+  <si>
+    <t>to display chart of accounts</t>
+  </si>
+  <si>
+    <t>Chart of Accounts</t>
+  </si>
+  <si>
+    <t>Update Chart of Accounts</t>
+  </si>
+  <si>
+    <t>to change information in CoA</t>
   </si>
 </sst>
 </file>
@@ -243,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -310,19 +331,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -360,40 +368,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -410,60 +389,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,8 +431,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,19 +440,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -816,7 +795,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -831,132 +810,134 @@
     <col min="8" max="8" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="8.6640625" style="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="1"/>
+    <col min="14" max="21" width="8.6640625" style="1"/>
+    <col min="22" max="22" width="8.6640625" style="29"/>
+    <col min="23" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="1:51" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="18">
         <v>10</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <v>2</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="18"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="11"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
@@ -988,48 +969,48 @@
       <c r="AY3" s="7"/>
     </row>
     <row r="4" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>3</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="18">
         <v>3</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <v>2</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="18"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="11"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
@@ -1061,48 +1042,48 @@
       <c r="AY4" s="7"/>
     </row>
     <row r="5" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>4</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>2</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <v>2</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="18"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="11"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
@@ -1134,48 +1115,48 @@
       <c r="AY5" s="7"/>
     </row>
     <row r="6" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>2</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>2</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>2</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="18"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="11"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
@@ -1207,50 +1188,50 @@
       <c r="AY6" s="7"/>
     </row>
     <row r="7" spans="1:51" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>5</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <v>2</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>2</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="18"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="11"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
@@ -1281,72 +1262,73 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
     </row>
-    <row r="8" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="41"/>
+    <row r="8" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="30"/>
     </row>
     <row r="9" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="17">
         <v>1</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="17">
         <v>9</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="17">
         <v>3</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28" t="s">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="18"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="11"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -1378,48 +1360,48 @@
       <c r="AY9" s="7"/>
     </row>
     <row r="10" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="17">
         <v>2</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="17">
         <v>9</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="17">
         <v>3</v>
       </c>
-      <c r="I10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="18"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="11"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -1451,48 +1433,48 @@
       <c r="AY10" s="7"/>
     </row>
     <row r="11" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="17">
         <v>3</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="17">
         <v>3</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="17">
         <v>3</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28" t="s">
+      <c r="K11" s="17"/>
+      <c r="L11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="18"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="11"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
@@ -1524,48 +1506,48 @@
       <c r="AY11" s="7"/>
     </row>
     <row r="12" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+      <c r="A12" s="17">
         <v>9</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="17">
         <v>4</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="17">
         <v>2</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="17">
         <v>3</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30" t="s">
+      <c r="K12" s="17"/>
+      <c r="L12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="18"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="11"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -1597,48 +1579,48 @@
       <c r="AY12" s="7"/>
     </row>
     <row r="13" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+      <c r="A13" s="17">
         <v>10</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="17">
         <v>5</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="17">
         <v>2</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="17">
         <v>3</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30" t="s">
+      <c r="K13" s="17"/>
+      <c r="L13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="18"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="11"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
@@ -1670,48 +1652,48 @@
       <c r="AY13" s="7"/>
     </row>
     <row r="14" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+      <c r="A14" s="17">
         <v>11</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="17">
         <v>6</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="17">
         <v>2</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="17">
         <v>3</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30" t="s">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="18"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="11"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -1742,29 +1724,49 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
     </row>
-    <row r="15" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="7"/>
+    <row r="15" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="17">
+        <v>7</v>
+      </c>
+      <c r="G15" s="17">
+        <v>9</v>
+      </c>
+      <c r="H15" s="17">
+        <v>3</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="11"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
@@ -1795,29 +1797,49 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
     </row>
-    <row r="16" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="7"/>
+    <row r="16" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <v>11</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="17">
+        <v>8</v>
+      </c>
+      <c r="G16" s="17">
+        <v>7</v>
+      </c>
+      <c r="H16" s="17">
+        <v>3</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="11"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -1848,29 +1870,49 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
     </row>
-    <row r="17" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="7"/>
+    <row r="17" spans="1:51" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="17">
+        <v>9</v>
+      </c>
+      <c r="G17" s="17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="17">
+        <v>3</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="11"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
@@ -1902,28 +1944,28 @@
       <c r="AY17" s="7"/>
     </row>
     <row r="18" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="7"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="11"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
@@ -1955,28 +1997,28 @@
       <c r="AY18" s="7"/>
     </row>
     <row r="19" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="7"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="11"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
@@ -2012,15 +2054,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="I20" s="9"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="33"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="11"/>
     </row>
     <row r="21" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
@@ -2035,16 +2078,16 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="7"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="11"/>
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
@@ -2088,16 +2131,16 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="7"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="11"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
@@ -2141,16 +2184,16 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="7"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="11"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
@@ -2194,16 +2237,16 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="7"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="11"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
@@ -2247,16 +2290,16 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="7"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="11"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
@@ -2300,16 +2343,16 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="7"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="11"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -2353,16 +2396,16 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="7"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="11"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
@@ -2406,16 +2449,16 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="7"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="11"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
@@ -2459,16 +2502,16 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="7"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="11"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
@@ -2512,16 +2555,16 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="7"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="11"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -2565,16 +2608,16 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="7"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="11"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
@@ -2618,16 +2661,16 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="7"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="11"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -2671,16 +2714,16 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="7"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="11"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
@@ -2724,16 +2767,16 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="7"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="11"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
@@ -2777,16 +2820,16 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="7"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="11"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
@@ -2830,16 +2873,16 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="7"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="11"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
@@ -2883,16 +2926,16 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="7"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="11"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
@@ -2936,16 +2979,16 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="7"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="11"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
@@ -2989,16 +3032,16 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="7"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="11"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
@@ -3042,16 +3085,16 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="7"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="11"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
@@ -3095,16 +3138,16 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="7"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="11"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
@@ -3148,16 +3191,16 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="7"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="11"/>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
@@ -3201,16 +3244,16 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="7"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="11"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
@@ -3254,16 +3297,16 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="7"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="11"/>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
@@ -3307,16 +3350,16 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="7"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="11"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
@@ -3360,16 +3403,16 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="7"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="11"/>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
@@ -3422,7 +3465,7 @@
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
+      <c r="V47" s="11"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
@@ -3475,7 +3518,7 @@
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
+      <c r="V48" s="11"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
@@ -3528,7 +3571,7 @@
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
+      <c r="V49" s="11"/>
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
@@ -3581,7 +3624,7 @@
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
+      <c r="V50" s="11"/>
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
@@ -3634,7 +3677,7 @@
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
+      <c r="V51" s="11"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
@@ -3687,7 +3730,7 @@
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
+      <c r="V52" s="11"/>
       <c r="W52" s="7"/>
       <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
@@ -3740,7 +3783,7 @@
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
+      <c r="V53" s="11"/>
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
@@ -3793,7 +3836,7 @@
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
+      <c r="V54" s="11"/>
       <c r="W54" s="7"/>
       <c r="X54" s="7"/>
       <c r="Y54" s="7"/>
@@ -3846,7 +3889,7 @@
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
+      <c r="V55" s="11"/>
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
@@ -3899,7 +3942,7 @@
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
+      <c r="V56" s="11"/>
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
@@ -3952,7 +3995,7 @@
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
+      <c r="V57" s="11"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
@@ -4005,7 +4048,7 @@
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
+      <c r="V58" s="11"/>
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
       <c r="Y58" s="7"/>
@@ -4058,7 +4101,7 @@
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
+      <c r="V59" s="11"/>
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
@@ -4111,7 +4154,7 @@
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
+      <c r="V60" s="11"/>
       <c r="W60" s="7"/>
       <c r="X60" s="7"/>
       <c r="Y60" s="7"/>
@@ -4144,6 +4187,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="M46:U46"/>
+    <mergeCell ref="M39:U39"/>
+    <mergeCell ref="M40:U40"/>
+    <mergeCell ref="M41:U41"/>
+    <mergeCell ref="M42:U42"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="M38:U38"/>
+    <mergeCell ref="M27:U27"/>
+    <mergeCell ref="M28:U28"/>
+    <mergeCell ref="M29:U29"/>
+    <mergeCell ref="M30:U30"/>
+    <mergeCell ref="M31:U31"/>
+    <mergeCell ref="M32:U32"/>
+    <mergeCell ref="M33:U33"/>
+    <mergeCell ref="M34:U34"/>
+    <mergeCell ref="M35:U35"/>
+    <mergeCell ref="M36:U36"/>
+    <mergeCell ref="M37:U37"/>
+    <mergeCell ref="M26:U26"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="M19:U19"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="M21:U21"/>
+    <mergeCell ref="M22:U22"/>
+    <mergeCell ref="M23:U23"/>
+    <mergeCell ref="M24:U24"/>
+    <mergeCell ref="M25:U25"/>
     <mergeCell ref="M14:U14"/>
     <mergeCell ref="M3:U3"/>
     <mergeCell ref="M4:U4"/>
@@ -4156,38 +4231,6 @@
     <mergeCell ref="M11:U11"/>
     <mergeCell ref="M12:U12"/>
     <mergeCell ref="M13:U13"/>
-    <mergeCell ref="M26:U26"/>
-    <mergeCell ref="M15:U15"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="M17:U17"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="M19:U19"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="M21:U21"/>
-    <mergeCell ref="M22:U22"/>
-    <mergeCell ref="M23:U23"/>
-    <mergeCell ref="M24:U24"/>
-    <mergeCell ref="M25:U25"/>
-    <mergeCell ref="M38:U38"/>
-    <mergeCell ref="M27:U27"/>
-    <mergeCell ref="M28:U28"/>
-    <mergeCell ref="M29:U29"/>
-    <mergeCell ref="M30:U30"/>
-    <mergeCell ref="M31:U31"/>
-    <mergeCell ref="M32:U32"/>
-    <mergeCell ref="M33:U33"/>
-    <mergeCell ref="M34:U34"/>
-    <mergeCell ref="M35:U35"/>
-    <mergeCell ref="M36:U36"/>
-    <mergeCell ref="M37:U37"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="M46:U46"/>
-    <mergeCell ref="M39:U39"/>
-    <mergeCell ref="M40:U40"/>
-    <mergeCell ref="M41:U41"/>
-    <mergeCell ref="M42:U42"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="M44:U44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
